--- a/FEAT-UC.xlsx
+++ b/FEAT-UC.xlsx
@@ -5,32 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ECEUWO\Teaching\Fall2017\SE3352A\Assignments\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvuke\Documents\3. 4th Year Software Eng\SE 3352 - Software Requirements\Assignment 2 Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13920" windowHeight="7200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t xml:space="preserve">Team Name: </t>
-  </si>
-  <si>
-    <t>Project Name:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Features-to-Use Cases Traceability Matrix</t>
   </si>
@@ -129,32 +129,71 @@
     <t>FEAT 30</t>
   </si>
   <si>
-    <t>.. and so on</t>
-  </si>
-  <si>
-    <t>add x to link</t>
-  </si>
-  <si>
-    <t>use case name 1</t>
-  </si>
-  <si>
-    <t>use case name 2</t>
-  </si>
-  <si>
-    <t>use case name 3</t>
-  </si>
-  <si>
-    <t>use case name 4</t>
-  </si>
-  <si>
-    <t>use case name 5</t>
+    <t>Book Appointment</t>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>Submit Introduction Form</t>
+  </si>
+  <si>
+    <t>Process Payment</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t>Set New Passsword</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>View Treatment Exercies</t>
+  </si>
+  <si>
+    <t>Create Single Exercise</t>
+  </si>
+  <si>
+    <t>Create Single Self-Assessment</t>
+  </si>
+  <si>
+    <t>Submit Self-Assessment</t>
+  </si>
+  <si>
+    <t>Assign Rehab Plan</t>
+  </si>
+  <si>
+    <t>Assess Test Results</t>
+  </si>
+  <si>
+    <t>View Patient Summary</t>
+  </si>
+  <si>
+    <t>Follow up with patient</t>
+  </si>
+  <si>
+    <t>Modify Introduction Form</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Manage Account</t>
+  </si>
+  <si>
+    <t>Team Name: Ademidun Hart &amp; Co</t>
+  </si>
+  <si>
+    <t>Project Name: Self-Start at Marcotte Physiotherapy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,14 +208,22 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -200,16 +247,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -217,13 +264,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -233,14 +276,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,401 +608,823 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="14.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="2" max="18" width="15.77734375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="5" spans="1:18" s="5" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+    </row>
+    <row r="34" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+    </row>
+    <row r="35" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
